--- a/Self Assessment Form - IUM-TWEB.xlsx
+++ b/Self Assessment Form - IUM-TWEB.xlsx
@@ -263,7 +263,9 @@
   <si>
     <t>Implemented functions for Spring Boot and JPA.
 Enhanced the application's visual design and styling.
-Java Documentation</t>
+Set up the Home Page with top rated movies.
+Java Documentation on all the different servers of 
+the project.</t>
   </si>
   <si>
     <t xml:space="preserve">Percentage: do you think that all members shohave done an equal amount of work? If so, write 33.3% on this row </t>
@@ -419,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -517,7 +519,10 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -1467,14 +1472,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" ht="66.0" customHeight="1">
+    <row r="75">
       <c r="A75" s="38" t="s">
         <v>64</v>
       </c>
       <c r="B75" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="41" t="s">
         <v>66</v>
       </c>
       <c r="D75" s="32"/>
@@ -1483,11 +1488,11 @@
       <c r="A76" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="41">
-        <v>0.7</v>
-      </c>
-      <c r="C76" s="41">
-        <v>0.3</v>
+      <c r="B76" s="42">
+        <v>0.65</v>
+      </c>
+      <c r="C76" s="42">
+        <v>0.35</v>
       </c>
       <c r="D76" s="32"/>
     </row>
